--- a/friendOdds.xlsx
+++ b/friendOdds.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamcowart/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamcowart/Documents/friendOdds/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="158">
   <si>
     <t>sport</t>
   </si>
@@ -160,13 +160,352 @@
   </si>
   <si>
     <t>MUN/SEV</t>
+  </si>
+  <si>
+    <t>EPL</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>CHELSEA</t>
+  </si>
+  <si>
+    <t>-½ (-115)</t>
+  </si>
+  <si>
+    <t>200082</t>
+  </si>
+  <si>
+    <t>SOUTHAMPTON</t>
+  </si>
+  <si>
+    <t>+½ (-115)</t>
+  </si>
+  <si>
+    <t>200083</t>
+  </si>
+  <si>
+    <t>DRAW</t>
+  </si>
+  <si>
+    <t>EVERTON</t>
+  </si>
+  <si>
+    <t>o2½ (+135)</t>
+  </si>
+  <si>
+    <t>PK (EVEN)</t>
+  </si>
+  <si>
+    <t>SWANSEA CITY</t>
+  </si>
+  <si>
+    <t>u2½ (-165)</t>
+  </si>
+  <si>
+    <t>PK (-130)</t>
+  </si>
+  <si>
+    <t>WATFORD</t>
+  </si>
+  <si>
+    <t>o2½ (+120)</t>
+  </si>
+  <si>
+    <t>PK (-115)</t>
+  </si>
+  <si>
+    <t>HUDDERSFIELD TOWN</t>
+  </si>
+  <si>
+    <t>u2½ (-150)</t>
+  </si>
+  <si>
+    <t>BRIGHTON &amp; HOVE ALBION</t>
+  </si>
+  <si>
+    <t>200094</t>
+  </si>
+  <si>
+    <t>CRYSTAL PALACE</t>
+  </si>
+  <si>
+    <t>200095</t>
+  </si>
+  <si>
+    <t>LEICESTER CITY</t>
+  </si>
+  <si>
+    <t>o2 (-130)</t>
+  </si>
+  <si>
+    <t>BURNLEY FC</t>
+  </si>
+  <si>
+    <t>u2 (EVEN)</t>
+  </si>
+  <si>
+    <t>BOURNEMOUTH</t>
+  </si>
+  <si>
+    <t>o3½ (-105)</t>
+  </si>
+  <si>
+    <t>+2 (-140)</t>
+  </si>
+  <si>
+    <t>LIVERPOOL</t>
+  </si>
+  <si>
+    <t>u3½ (-125)</t>
+  </si>
+  <si>
+    <t>-2 (+110)</t>
+  </si>
+  <si>
+    <t>MANCHESTER CITY</t>
+  </si>
+  <si>
+    <t>o3 (-110)</t>
+  </si>
+  <si>
+    <t>TOTTENHAM</t>
+  </si>
+  <si>
+    <t>u3 (-120)</t>
+  </si>
+  <si>
+    <t>+.5</t>
+  </si>
+  <si>
+    <t>-.5</t>
+  </si>
+  <si>
+    <t>-115</t>
+  </si>
+  <si>
+    <t>+260</t>
+  </si>
+  <si>
+    <t>SOT/CHE</t>
+  </si>
+  <si>
+    <t>2018-04-18</t>
+  </si>
+  <si>
+    <t>Swansea City</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>+150</t>
+  </si>
+  <si>
+    <t>+205</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>-130</t>
+  </si>
+  <si>
+    <t>EVEN</t>
+  </si>
+  <si>
+    <t>u2.5</t>
+  </si>
+  <si>
+    <t>o2.5</t>
+  </si>
+  <si>
+    <t>+135</t>
+  </si>
+  <si>
+    <t>-165</t>
+  </si>
+  <si>
+    <t>+220</t>
+  </si>
+  <si>
+    <t>SWA/EVE</t>
+  </si>
+  <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>+165</t>
+  </si>
+  <si>
+    <t>+185</t>
+  </si>
+  <si>
+    <t>-150</t>
+  </si>
+  <si>
+    <t>+215</t>
+  </si>
+  <si>
+    <t>HUD/WAT</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Brightone &amp; Hove Albion</t>
+  </si>
+  <si>
+    <t>+235</t>
+  </si>
+  <si>
+    <t>CRY/BHA</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
+    <t>o2</t>
+  </si>
+  <si>
+    <t>u2</t>
+  </si>
+  <si>
+    <t>+210</t>
+  </si>
+  <si>
+    <t>BUR/LEI</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>-405</t>
+  </si>
+  <si>
+    <t>+1100</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-125</t>
+  </si>
+  <si>
+    <t>+530</t>
+  </si>
+  <si>
+    <t>LIV/BOU</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>+160</t>
+  </si>
+  <si>
+    <t>-110</t>
+  </si>
+  <si>
+    <t>-120</t>
+  </si>
+  <si>
+    <t>+255</t>
+  </si>
+  <si>
+    <t>TOT/MCI</t>
+  </si>
+  <si>
+    <t>2018-04-14</t>
+  </si>
+  <si>
+    <t>2018-04-15</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>+110</t>
+  </si>
+  <si>
+    <t>NEW/ARS</t>
+  </si>
+  <si>
+    <t>Manchested United</t>
+  </si>
+  <si>
+    <t>West Brom</t>
+  </si>
+  <si>
+    <t>-590</t>
+  </si>
+  <si>
+    <t>+1680</t>
+  </si>
+  <si>
+    <t>-145</t>
+  </si>
+  <si>
+    <t>+115</t>
+  </si>
+  <si>
+    <t>+635</t>
+  </si>
+  <si>
+    <t>MUN/WBA</t>
+  </si>
+  <si>
+    <t>2018-04-16</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Stoke City</t>
+  </si>
+  <si>
+    <t>+295</t>
+  </si>
+  <si>
+    <t>+240</t>
+  </si>
+  <si>
+    <t>WHA/STO</t>
+  </si>
+  <si>
+    <t>2018-04-17</t>
+  </si>
+  <si>
+    <t>Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>2018-04-19</t>
+  </si>
+  <si>
+    <t>Southamption</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +520,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,11 +561,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,31 +847,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" customWidth="1"/>
-    <col min="17" max="17" width="198.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="230.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -525,37 +887,37 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -776,6 +1138,508 @@
       <c r="Q5" t="str">
         <f t="shared" si="0"/>
         <v>insert into games values (id,'Champions League','2018-04-10','Bayern Munich','Sevilla','Bayern Munich -450','Sevilla +1220','Bayern Munich -2','-115','Sevilla +2','-115','MUN/SEV o3.5','-115','MUN/SEV u3.5','-115','Draw MUN/SEV +550',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-115</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -785,12 +1649,342 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4">
+        <v>43204.3125</v>
+      </c>
+      <c r="B1">
+        <v>200081</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1">
+        <v>-115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>335</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>43204.416666666664</v>
+      </c>
+      <c r="B4">
+        <v>200085</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>205</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>200086</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>150</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>200087</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>43204.416666666664</v>
+      </c>
+      <c r="B7">
+        <v>200089</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>185</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>200090</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>165</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>200091</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>43204.416666666664</v>
+      </c>
+      <c r="B10">
+        <v>200093</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10">
+        <v>320</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11">
+        <v>-105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>43204.416666666664</v>
+      </c>
+      <c r="B13">
+        <v>200097</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>185</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>200098</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14">
+        <v>165</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>200099</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>43204.520833333336</v>
+      </c>
+      <c r="B16">
+        <v>200101</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16">
+        <v>1100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>200102</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17">
+        <v>-405</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>200103</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>43204.614583333336</v>
+      </c>
+      <c r="B19">
+        <v>200105</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>160</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>200106</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20">
+        <v>165</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>200107</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="6">
+        <v>255</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/friendOdds.xlsx
+++ b/friendOdds.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="232">
   <si>
     <t>sport</t>
   </si>
@@ -499,6 +501,228 @@
   </si>
   <si>
     <t>Southamption</t>
+  </si>
+  <si>
+    <t>2018-04-28</t>
+  </si>
+  <si>
+    <t>2018-04-29</t>
+  </si>
+  <si>
+    <t>2018-04-30</t>
+  </si>
+  <si>
+    <t>+1015</t>
+  </si>
+  <si>
+    <t>-1.5</t>
+  </si>
+  <si>
+    <t>-135</t>
+  </si>
+  <si>
+    <t>+1.5</t>
+  </si>
+  <si>
+    <t>+105</t>
+  </si>
+  <si>
+    <t>+505</t>
+  </si>
+  <si>
+    <t>LIV/STK</t>
+  </si>
+  <si>
+    <t>+390</t>
+  </si>
+  <si>
+    <t>+290</t>
+  </si>
+  <si>
+    <t>SOT/BOU</t>
+  </si>
+  <si>
+    <t>+355</t>
+  </si>
+  <si>
+    <t>NEW/WBA</t>
+  </si>
+  <si>
+    <t>+155</t>
+  </si>
+  <si>
+    <t>Even</t>
+  </si>
+  <si>
+    <t>HUD/EVE</t>
+  </si>
+  <si>
+    <t>+270</t>
+  </si>
+  <si>
+    <t>CRY/LEI</t>
+  </si>
+  <si>
+    <t>Brighton Hove Albion</t>
+  </si>
+  <si>
+    <t>-140</t>
+  </si>
+  <si>
+    <t>BUR/BHA</t>
+  </si>
+  <si>
+    <t>Chelse</t>
+  </si>
+  <si>
+    <t>+600</t>
+  </si>
+  <si>
+    <t>-210</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>+340</t>
+  </si>
+  <si>
+    <t>SWA/CHE</t>
+  </si>
+  <si>
+    <t>+875</t>
+  </si>
+  <si>
+    <t>-325</t>
+  </si>
+  <si>
+    <t>+460</t>
+  </si>
+  <si>
+    <t>WHA/MCI</t>
+  </si>
+  <si>
+    <t>-235</t>
+  </si>
+  <si>
+    <t>+645</t>
+  </si>
+  <si>
+    <t>+370</t>
+  </si>
+  <si>
+    <t>MUN/ARS</t>
+  </si>
+  <si>
+    <t>-660</t>
+  </si>
+  <si>
+    <t>+1725</t>
+  </si>
+  <si>
+    <t>+715</t>
+  </si>
+  <si>
+    <t>TOT/WAT</t>
+  </si>
+  <si>
+    <t>2018-05-13</t>
+  </si>
+  <si>
+    <t>Leiceister City</t>
+  </si>
+  <si>
+    <t>+830</t>
+  </si>
+  <si>
+    <t>+470</t>
+  </si>
+  <si>
+    <t>TOT/LEI</t>
+  </si>
+  <si>
+    <t>-113</t>
+  </si>
+  <si>
+    <t>+310</t>
+  </si>
+  <si>
+    <t>+265</t>
+  </si>
+  <si>
+    <t>SWA/STK</t>
+  </si>
+  <si>
+    <t>+640</t>
+  </si>
+  <si>
+    <t>SOU/MCI</t>
+  </si>
+  <si>
+    <t>-175</t>
+  </si>
+  <si>
+    <t>+305</t>
+  </si>
+  <si>
+    <t>NEW/CHE</t>
+  </si>
+  <si>
+    <t>-285</t>
+  </si>
+  <si>
+    <t>+775</t>
+  </si>
+  <si>
+    <t>+440</t>
+  </si>
+  <si>
+    <t>MUN/WAT</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>-555</t>
+  </si>
+  <si>
+    <t>+1370</t>
+  </si>
+  <si>
+    <t>+650</t>
+  </si>
+  <si>
+    <t>LIV/BHA</t>
+  </si>
+  <si>
+    <t>Huddesrsfield</t>
+  </si>
+  <si>
+    <t>-170</t>
+  </si>
+  <si>
+    <t>+325</t>
+  </si>
+  <si>
+    <t>HUD/ARS</t>
+  </si>
+  <si>
+    <t>+365</t>
+  </si>
+  <si>
+    <t>+285</t>
+  </si>
+  <si>
+    <t>CRY/WBA</t>
+  </si>
+  <si>
+    <t>+245</t>
+  </si>
+  <si>
+    <t>BUR/BOU</t>
+  </si>
+  <si>
+    <t>WHA/EVE</t>
   </si>
 </sst>
 </file>
@@ -849,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1987,4 +2211,1298 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-380</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>CONCATENATE("insert into games values (id,'",A2,"','",B2,"','",C2,"','",D2,"','",C2," ",E2,"','",D2," ",F2,"','",C2," ",G2,"','",H2,"','",D2," ",I2,"','",J2,"','",P2," ",K2,"','",L2,"','",P2," ",M2,"','",N2,"','Draw ",P2," ",O2,"',NULL,NULL,NULL,NULL,NULL,NULL,NULL);")</f>
+        <v>insert into games values (id,'EPL','2018-04-28','Liverpool','Stoke City','Liverpool -380','Stoke City +1015','Liverpool -1.5','-135','Stoke City +1.5','+105','LIV/STK o3','-125','LIV/STK u3','-105','Draw LIV/STK +505',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q11" si="0">CONCATENATE("insert into games values (id,'",A3,"','",B3,"','",C3,"','",D3,"','",C3," ",E3,"','",D3," ",F3,"','",C3," ",G3,"','",H3,"','",D3," ",I3,"','",J3,"','",P3," ",K3,"','",L3,"','",P3," ",M3,"','",N3,"','Draw ",P3," ",O3,"',NULL,NULL,NULL,NULL,NULL,NULL,NULL);")</f>
+        <v>insert into games values (id,'EPL','2018-04-28','Southampton','Bournemouth','Southampton -145','Bournemouth +390','Southampton -.5','-145','Bournemouth +.5','+115','SOT/BOU o2.5','-135','SOT/BOU u2.5','+105','Draw SOT/BOU +290',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-04-28','Newcastle United','West Brom','Newcastle United -115','West Brom +355','Newcastle United -.5','-115','West Brom +.5','-115','NEW/WBA o2.5','+110','NEW/WBA u2.5','+105','Draw NEW/WBA +240',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-04-28','Huddersfield Town','Everton','Huddersfield Town +155','Everton +210','Huddersfield Town PK','-130','Everton PK','Even','HUD/EVE o2','-115','HUD/EVE u2','-115','Draw HUD/EVE +205',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-04-28','Crystal Palace','Leicester City','Crystal Palace +105','Leicester City +270','Crystal Palace -.5','-105','Leicester City +.5','-125','CRY/LEI o2.5','-115','CRY/LEI u2.5','-115','Draw CRY/LEI +255',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-04-28','Burnley','Brighton Hove Albion','Burnley +120','Brighton Hove Albion +260','Burnley -.5','+110','Brighton Hove Albion +.5','-140','BUR/BHA ','','BUR/BHA ','','Draw BUR/BHA +215',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-04-28','Swansea City','Chelse','Swansea City +600','Chelse -210','Swansea City +1','-105','Chelse -1','-125','SWA/CHE o2.5','-115','SWA/CHE u2.5','-115','Draw SWA/CHE +340',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-04-29','West Ham','Manchester City','West Ham +875','Manchester City -325','West Ham +1.5','-110','Manchester City -1.5','-120','WHA/MCI o3','-120','WHA/MCI u3','-110','Draw WHA/MCI +460',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-04-29','Manchester United','Arsenal','Manchester United -235','Arsenal +645','Manchester United -1.5','+110','Arsenal +1.5','-140','MUN/ARS o3','-110','MUN/ARS u3','-120','Draw MUN/ARS +370',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-04-30','Tottenham','Watford','Tottenham -660','Watford +1725','Tottenham -2','-140','Watford +2','+110','TOT/WAT o3','-145','TOT/WAT u3','+115','Draw TOT/WAT +715',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2">
+        <v>-120</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q2" t="str">
+        <f t="shared" ref="Q2:Q11" si="0">CONCATENATE("insert into games values (id,'",A2,"','",B2,"','",C2,"','",D2,"','",C2," ",E2,"','",D2," ",F2,"','",C2," ",G2,"','",H2,"','",D2," ",I2,"','",J2,"','",P2," ",K2,"','",L2,"','",P2," ",M2,"','",N2,"','Draw ",P2," ",O2,"',NULL,NULL,NULL,NULL,NULL,NULL,NULL);")</f>
+        <v>insert into games values (id,'EPL','2018-05-13','Tottenham','Leiceister City','Tottenham -325','Leiceister City +830','Tottenham -1.5','-120','Leiceister City +1.5','-110','TOT/LEI o3.5','Even','TOT/LEI u3.5','-130','Draw TOT/LEI +470',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-05-13','Swansea City','Stoke City','Swansea City -113','Stoke City +310','Swansea City -.5','-115','Stoke City +.5','-115','SWA/STK o2.5','-135','SWA/STK u2.5','+105','Draw SWA/STK +265',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-05-13','Southampton','Manchester City','Southampton +640','Manchester City -235','Southampton +1.5','-145','Manchester City -1.5','+115','SOU/MCI o3','-115','SOU/MCI u3','-115','Draw SOU/MCI +380',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-05-13','Newcastle United','Chelsea','Newcastle United +505','Chelsea -175','Newcastle United +1','-120','Chelsea -1','-110','NEW/CHE o2.5','-120','NEW/CHE u2.5','-110','Draw NEW/CHE +305',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-05-13','Manchested United','Watford','Manchested United -285','Watford +775','Manchested United -1.5','-110','Watford +1.5','-120','MUN/WAT o3','-115','MUN/WAT u3','-115','Draw MUN/WAT +440',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-05-13','Liverpool','Brighton','Liverpool -555','Brighton +1370','Liverpool -2','-115','Brighton +2','+115','LIV/BHA o3.5','-105','LIV/BHA u3.5','-125','Draw LIV/BHA +650',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-05-13','Huddesrsfield','Arsenal','Huddesrsfield +450','Arsenal -170','Huddesrsfield +1','-115','Arsenal -1','-115','HUD/ARS o3','-125','HUD/ARS u3','-105','Draw HUD/ARS +325',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-05-13','Crystal Palace','West Brom','Crystal Palace -135','West Brom +365','Crystal Palace -.5','-135','West Brom +.5','+105','CRY/WBA o2.5','-130','CRY/WBA u2.5','Even','Draw CRY/WBA +285',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-05-13','Burnley','Bournemouth','Burnley +115','Bournemouth +240','Burnley -.5','+105','Bournemouth +.5','-135','BUR/BOU o2.5','-115','BUR/BOU u2.5','-115','Draw BUR/BOU +245',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into games values (id,'EPL','2018-05-13','West Ham','Everton','West Ham +135','Everton +205','West Ham PK','-140','Everton PK','+110','WHA/EVE o2.5','-120','WHA/EVE u2.5','-110','Draw WHA/EVE +245',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/friendOdds.xlsx
+++ b/friendOdds.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="234">
   <si>
     <t>sport</t>
   </si>
@@ -626,103 +626,109 @@
     <t>TOT/WAT</t>
   </si>
   <si>
-    <t>2018-05-13</t>
-  </si>
-  <si>
-    <t>Leiceister City</t>
-  </si>
-  <si>
-    <t>+830</t>
-  </si>
-  <si>
-    <t>+470</t>
-  </si>
-  <si>
-    <t>TOT/LEI</t>
-  </si>
-  <si>
-    <t>-113</t>
-  </si>
-  <si>
-    <t>+310</t>
-  </si>
-  <si>
-    <t>+265</t>
-  </si>
-  <si>
-    <t>SWA/STK</t>
-  </si>
-  <si>
-    <t>+640</t>
-  </si>
-  <si>
-    <t>SOU/MCI</t>
-  </si>
-  <si>
-    <t>-175</t>
-  </si>
-  <si>
-    <t>+305</t>
-  </si>
-  <si>
-    <t>NEW/CHE</t>
-  </si>
-  <si>
-    <t>-285</t>
-  </si>
-  <si>
-    <t>+775</t>
-  </si>
-  <si>
-    <t>+440</t>
-  </si>
-  <si>
-    <t>MUN/WAT</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>-555</t>
-  </si>
-  <si>
-    <t>+1370</t>
-  </si>
-  <si>
-    <t>+650</t>
-  </si>
-  <si>
-    <t>LIV/BHA</t>
-  </si>
-  <si>
-    <t>Huddesrsfield</t>
-  </si>
-  <si>
-    <t>-170</t>
+    <t>+245</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Cardiff City</t>
+  </si>
+  <si>
+    <t>Wolverhampton</t>
+  </si>
+  <si>
+    <t>+280</t>
+  </si>
+  <si>
+    <t>+145</t>
+  </si>
+  <si>
+    <t>+230</t>
+  </si>
+  <si>
+    <t>+250</t>
+  </si>
+  <si>
+    <t>2018-08-18</t>
+  </si>
+  <si>
+    <t>CAR/NEW</t>
+  </si>
+  <si>
+    <t>Huddersfield</t>
+  </si>
+  <si>
+    <t>+360</t>
+  </si>
+  <si>
+    <t>-375</t>
+  </si>
+  <si>
+    <t>+1025</t>
   </si>
   <si>
     <t>+325</t>
   </si>
   <si>
-    <t>HUD/ARS</t>
-  </si>
-  <si>
-    <t>+365</t>
-  </si>
-  <si>
-    <t>+285</t>
-  </si>
-  <si>
-    <t>CRY/WBA</t>
-  </si>
-  <si>
-    <t>+245</t>
-  </si>
-  <si>
-    <t>BUR/BOU</t>
-  </si>
-  <si>
-    <t>WHA/EVE</t>
+    <t>-1315</t>
+  </si>
+  <si>
+    <t>+3020</t>
+  </si>
+  <si>
+    <t>+420</t>
+  </si>
+  <si>
+    <t>+580</t>
+  </si>
+  <si>
+    <t>-225</t>
+  </si>
+  <si>
+    <t>-2.5</t>
+  </si>
+  <si>
+    <t>+2.5</t>
+  </si>
+  <si>
+    <t>2018-08-19</t>
+  </si>
+  <si>
+    <t>2018-08-20</t>
+  </si>
+  <si>
+    <t>+495</t>
+  </si>
+  <si>
+    <t>+1030</t>
+  </si>
+  <si>
+    <t>WHU/BOU</t>
+  </si>
+  <si>
+    <t>EVE/SOU</t>
+  </si>
+  <si>
+    <t>TOT/FUL</t>
+  </si>
+  <si>
+    <t>LEI/WOL</t>
+  </si>
+  <si>
+    <t>CHE/ARS</t>
+  </si>
+  <si>
+    <t>BUR/WAT</t>
+  </si>
+  <si>
+    <t>MCI/HUD</t>
+  </si>
+  <si>
+    <t>BHA/MUN</t>
+  </si>
+  <si>
+    <t>CRY/LIV</t>
   </si>
 </sst>
 </file>
@@ -2830,18 +2836,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q2:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -2911,53 +2916,53 @@
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2">
-        <v>-120</v>
+        <v>94</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q2" t="str">
         <f t="shared" ref="Q2:Q11" si="0">CONCATENATE("insert into games values (id,'",A2,"','",B2,"','",C2,"','",D2,"','",C2," ",E2,"','",D2," ",F2,"','",C2," ",G2,"','",H2,"','",D2," ",I2,"','",J2,"','",P2," ",K2,"','",L2,"','",P2," ",M2,"','",N2,"','Draw ",P2," ",O2,"',NULL,NULL,NULL,NULL,NULL,NULL,NULL);")</f>
-        <v>insert into games values (id,'EPL','2018-05-13','Tottenham','Leiceister City','Tottenham -325','Leiceister City +830','Tottenham -1.5','-120','Leiceister City +1.5','-110','TOT/LEI o3.5','Even','TOT/LEI u3.5','-130','Draw TOT/LEI +470',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-08-18','Cardiff City','Newcastle United','Cardiff City +220','Newcastle United +145','Cardiff City PK','+110','Newcastle United PK','-140','CAR/NEW o2','-115','CAR/NEW u2','-115','Draw CAR/NEW +205',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -2965,53 +2970,53 @@
         <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>85</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>84</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>98</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>206</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="Q3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-05-13','Swansea City','Stoke City','Swansea City -113','Stoke City +310','Swansea City -.5','-115','Stoke City +.5','-115','SWA/STK o2.5','-135','SWA/STK u2.5','+105','Draw SWA/STK +265',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-08-18','West Ham','Bournemouth','West Ham +105','Bournemouth +260','West Ham -.5','-105','Bournemouth +.5','-125','WHU/BOU o2.5','-125','WHU/BOU u2.5','-105','Draw WHU/BOU +250',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -3019,53 +3024,53 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="P4" s="3" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-05-13','Southampton','Manchester City','Southampton +640','Manchester City -235','Southampton +1.5','-145','Manchester City -1.5','+115','SOU/MCI o3','-115','SOU/MCI u3','-115','Draw SOU/MCI +380',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-08-18','Everton','Southampton','Everton -120','Southampton +360','Everton -.5','-120','Southampton +.5','-110','EVE/SOU o2.5','+110','EVE/SOU u2.5','-140','Draw EVE/SOU +245',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -3073,53 +3078,53 @@
         <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-05-13','Newcastle United','Chelsea','Newcastle United +505','Chelsea -175','Newcastle United +1','-120','Chelsea -1','-110','NEW/CHE o2.5','-120','NEW/CHE u2.5','-110','Draw NEW/CHE +305',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-08-18','Tottenham','Fulham','Tottenham -375','Fulham +1025','Tottenham -1.5','-130','Fulham +1.5','EVEN','TOT/FUL o3','-125','TOT/FUL u3','-105','Draw TOT/FUL +495',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -3127,53 +3132,53 @@
         <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="P6" s="3" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-05-13','Manchested United','Watford','Manchested United -285','Watford +775','Manchested United -1.5','-110','Watford +1.5','-120','MUN/WAT o3','-115','MUN/WAT u3','-115','Draw MUN/WAT +440',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-08-18','Leicester City','Wolverhampton','Leicester City +105','Wolverhampton +280','Leicester City -.5','-105','Wolverhampton +.5','-125','LEI/WOL o2.5','-105','LEI/WOL u2.5','-125','Draw LEI/WOL +245',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -3181,53 +3186,53 @@
         <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-05-13','Liverpool','Brighton','Liverpool -555','Brighton +1370','Liverpool -2','-115','Brighton +2','+115','LIV/BHA o3.5','-105','LIV/BHA u3.5','-125','Draw LIV/BHA +650',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-08-18','Chelsea','Arsenal','Chelsea -125','Arsenal +325','Chelsea -.5','-120','Arsenal +.5','-110','CHE/ARS o3','-115','CHE/ARS u3','-115','Draw CHE/ARS +290',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3235,53 +3240,53 @@
         <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-05-13','Huddesrsfield','Arsenal','Huddesrsfield +450','Arsenal -170','Huddesrsfield +1','-115','Arsenal -1','-115','HUD/ARS o3','-125','HUD/ARS u3','-105','Draw HUD/ARS +325',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-08-19','Burnley','Watford','Burnley +145','Watford +230','Burnley PK','-145','Watford PK','+115','BUR/WAT o2','-110','BUR/WAT u2','-120','Draw BUR/WAT +205',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -3289,53 +3294,53 @@
         <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" t="s">
-        <v>140</v>
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>85</v>
+        <v>219</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-05-13','Crystal Palace','West Brom','Crystal Palace -135','West Brom +365','Crystal Palace -.5','-135','West Brom +.5','+105','CRY/WBA o2.5','-130','CRY/WBA u2.5','Even','Draw CRY/WBA +285',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-08-19','Manchester City','Huddersfield','Manchester City -1315','Huddersfield +3020','Manchester City -2.5','-130','Huddersfield +2.5','EVEN','MCI/HUD o3.5','-115','MCI/HUD u3.5','-115','Draw MCI/HUD +1030',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3343,53 +3348,53 @@
         <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>98</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-05-13','Burnley','Bournemouth','Burnley +115','Bournemouth +240','Burnley -.5','+105','Bournemouth +.5','-135','BUR/BOU o2.5','-115','BUR/BOU u2.5','-115','Draw BUR/BOU +245',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-08-19','Brighton &amp; Hove Albion','Manchester United','Brighton &amp; Hove Albion +420','Manchester United -130','Brighton &amp; Hove Albion +.5','EVEN','Manchester United -.5','-130','BHA/MUN o2.5','+115','BHA/MUN u2.5','-145','Draw BHA/MUN +245',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -3397,109 +3402,100 @@
         <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-05-13','West Ham','Everton','West Ham +135','Everton +205','West Ham PK','-140','Everton PK','+110','WHA/EVE o2.5','-120','WHA/EVE u2.5','-110','Draw WHA/EVE +245',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-08-20','Crystal Palace','Liverpool','Crystal Palace +580','Liverpool -225','Crystal Palace +1','+110','Liverpool -1','-140','CRY/LIV o3','-115','CRY/LIV u3','-115','Draw CRY/LIV +380',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>199</v>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/friendOdds.xlsx
+++ b/friendOdds.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="344">
   <si>
     <t>sport</t>
   </si>
@@ -626,9 +627,6 @@
     <t>TOT/WAT</t>
   </si>
   <si>
-    <t>+245</t>
-  </si>
-  <si>
     <t>Fulham</t>
   </si>
   <si>
@@ -638,97 +636,430 @@
     <t>Wolverhampton</t>
   </si>
   <si>
-    <t>+280</t>
-  </si>
-  <si>
-    <t>+145</t>
+    <t>-2.5</t>
+  </si>
+  <si>
+    <t>+2.5</t>
+  </si>
+  <si>
+    <t>'1','Adam','Crystal Palace -105',NULL</t>
+  </si>
+  <si>
+    <t>'2','Adam','Arsenal -1 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'3','Adam','WAT/TOT o2.5 (-135)',NULL</t>
+  </si>
+  <si>
+    <t>'4','Adam','Manchester United -155',NULL</t>
+  </si>
+  <si>
+    <t>'5','Adam','Draw BHA/FUL +235',NULL</t>
+  </si>
+  <si>
+    <t>'6','Adam','West Ham PK (-125)',NULL</t>
+  </si>
+  <si>
+    <t>'31','Mitch','Manchester United -155',NULL</t>
+  </si>
+  <si>
+    <t>'30','Mitch','Arsenal -185',NULL</t>
+  </si>
+  <si>
+    <t>'29','Mitch','Everton -1 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'28','Mitch','Draw BHA/FUL +235',NULL</t>
+  </si>
+  <si>
+    <t>'27','Mitch','West Ham +150',NULL</t>
+  </si>
+  <si>
+    <t>'26','Mitch','Newcastle United +2.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'25','Mitch','Crystal Palace -105',NULL</t>
+  </si>
+  <si>
+    <t>'32','Mitch','Tottenham -160',NULL</t>
+  </si>
+  <si>
+    <t>'37','Parker','Tottenham -160',NULL</t>
+  </si>
+  <si>
+    <t>'36','Parker','Arsenal -185',NULL</t>
+  </si>
+  <si>
+    <t>'35','Parker','Draw WHU/WOL +235',NULL</t>
+  </si>
+  <si>
+    <t>+225</t>
+  </si>
+  <si>
+    <t>'1','Adam','FUL/WAT o2.5 (-130)',NULL</t>
+  </si>
+  <si>
+    <t>'2','Adam','Southampton +2 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'3','Adam','Crystal Palace +110',NULL</t>
+  </si>
+  <si>
+    <t>'4','Adam','Manchester City -2 (-135)',NULL</t>
+  </si>
+  <si>
+    <t>'5','Adam','Draw BUR/BOU +225',NULL</t>
+  </si>
+  <si>
+    <t>'6','Adam','Tottenham -135',NULL</t>
+  </si>
+  <si>
+    <t>'7','Adam','Chelsea -170',NULL</t>
+  </si>
+  <si>
+    <t>'8','Adam','Everton +1 (+115)',NULL</t>
+  </si>
+  <si>
+    <t>'10','Mitch','LIV/SOU o3 (-125)',NULL</t>
+  </si>
+  <si>
+    <t>'11','Mitch','Fulham +150',NULL</t>
+  </si>
+  <si>
+    <t>'12','Mitch','Draw BUR/BOU +225',NULL</t>
+  </si>
+  <si>
+    <t>'13','Mitch','Crystal Palace +110',NULL</t>
+  </si>
+  <si>
+    <t>'14','Mitch','Manchester United -1 (-105)',NULL</t>
+  </si>
+  <si>
+    <t>'15','Mitch','LEI/HUD o2.5 (+110)',NULL</t>
+  </si>
+  <si>
+    <t>'16','Mitch','Manchester City -2 (-135)',NULL</t>
+  </si>
+  <si>
+    <t>'17','Mitch','Draw WHU/CHE +325',NULL</t>
+  </si>
+  <si>
+    <t>'18','Mitch','Arsenal -1 (-145)',NULL</t>
+  </si>
+  <si>
+    <t>'20','Parker','Southampton +2 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'21','Parker','Fulham PK (-125)',NULL</t>
+  </si>
+  <si>
+    <t>'22','Parker','Draw LEI/HUD +270',NULL</t>
+  </si>
+  <si>
+    <t>'23','Parker','Manchester City -2 (-135)',NULL</t>
+  </si>
+  <si>
+    <t>'24','Parker','Manchester United -170',NULL</t>
+  </si>
+  <si>
+    <t>'25','Parker','Crystal Palace -.5 (Even)',NULL</t>
+  </si>
+  <si>
+    <t>'26','Parker','Tottenham -.5 (-135)',NULL</t>
+  </si>
+  <si>
+    <t>'27','Parker','Arsenal -1 (-145)',NULL</t>
+  </si>
+  <si>
+    <t>'28','Parker','Chelsea -1 (-110)',NULL</t>
+  </si>
+  <si>
+    <t>'34','Mitch','Cardiff City +145',NULL</t>
+  </si>
+  <si>
+    <t>'33','Mitch','Watford PK (EVEN)',NULL</t>
+  </si>
+  <si>
+    <t>'32','Mitch','Draw NEW/BHA +215',NULL</t>
+  </si>
+  <si>
+    <t>'31','Mitch','ARS/LEI o3 (-125)',NULL</t>
+  </si>
+  <si>
+    <t>'30','Mitch','Draw CHE/MUN +285',NULL</t>
+  </si>
+  <si>
+    <t>'29','Mitch','Draw EVE/CRY +255',NULL</t>
+  </si>
+  <si>
+    <t>'28','Mitch','Bournemouth EVEN',NULL</t>
+  </si>
+  <si>
+    <t>'27','Mitch','Tottenham -115',NULL</t>
+  </si>
+  <si>
+    <t>'26','Mitch','MCI/BUR o3.5 (-135)',NULL</t>
+  </si>
+  <si>
+    <t>'25','Mitch','Liverpool -1.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'24','Parker','Chelsea -.5 (-145)',NULL</t>
+  </si>
+  <si>
+    <t>'23','Parker','Bournemouth -.5 (-110)',NULL</t>
+  </si>
+  <si>
+    <t>'22','Parker','Newcastle United -.5 (-135)',NULL</t>
+  </si>
+  <si>
+    <t>'21','Parker','Arsenal -1 (-120)',NULL</t>
+  </si>
+  <si>
+    <t>'20','Parker','Newcastle United +115',NULL</t>
+  </si>
+  <si>
+    <t>'19','Parker','Everton -.5 (-120)',NULL</t>
+  </si>
+  <si>
+    <t>'18','Parker','Draw WHU/TOT +280',NULL</t>
+  </si>
+  <si>
+    <t>'17','Parker','MCI/BUR o3.5 (-135)',NULL</t>
+  </si>
+  <si>
+    <t>'16','Parker','Draw CAR/FUL +240',NULL</t>
+  </si>
+  <si>
+    <t>'15','Parker','Draw WOL/WAT +265',NULL</t>
+  </si>
+  <si>
+    <t>'14','Parker','Everton -120',NULL</t>
+  </si>
+  <si>
+    <t>'13','Parker','Arsenal -190',NULL</t>
+  </si>
+  <si>
+    <t>'12','Parker','Chelsea -145',NULL</t>
+  </si>
+  <si>
+    <t>'11','Parker','Liverpool -1.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'10','Parker','Bournemouth EVEN',NULL</t>
+  </si>
+  <si>
+    <t>'9','Adam','Everton -120',NULL</t>
+  </si>
+  <si>
+    <t>'8','Adam','Arsenal -190',NULL</t>
+  </si>
+  <si>
+    <t>'7','Adam','Fulham +.5 (-110)',NULL</t>
+  </si>
+  <si>
+    <t>'6','Adam','Wolverhampton PK (-130)',NULL</t>
+  </si>
+  <si>
+    <t>'5','Adam','NEW/BHA u2 (-110)',NULL</t>
+  </si>
+  <si>
+    <t>'4','Adam','Chelsea -145',NULL</t>
+  </si>
+  <si>
+    <t>'3','Adam','Bournemouth EVEN',NULL</t>
+  </si>
+  <si>
+    <t>'2','Adam','Burnley +3 (-125)',NULL</t>
+  </si>
+  <si>
+    <t>'1','Adam','Liverpool -1.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>2018-11-03</t>
+  </si>
+  <si>
+    <t>Brighton &amp; Hove</t>
+  </si>
+  <si>
+    <t>2018-11-04</t>
+  </si>
+  <si>
+    <t>+130</t>
   </si>
   <si>
     <t>+230</t>
   </si>
   <si>
-    <t>+250</t>
-  </si>
-  <si>
-    <t>2018-08-18</t>
-  </si>
-  <si>
-    <t>CAR/NEW</t>
-  </si>
-  <si>
-    <t>Huddersfield</t>
-  </si>
-  <si>
-    <t>+360</t>
-  </si>
-  <si>
-    <t>-375</t>
-  </si>
-  <si>
-    <t>+1025</t>
+    <t>'31','MItch','BUR/CHE o2.5 (-125)',NULL</t>
+  </si>
+  <si>
+    <t>'30','MItch','TOT/MCI o3 (-110)',NULL</t>
+  </si>
+  <si>
+    <t>'29','MItch','Crystal Palace +335',NULL</t>
+  </si>
+  <si>
+    <t>'28','MItch','Manchester United -140',NULL</t>
+  </si>
+  <si>
+    <t>'27','MItch','Wolverhampton +145',NULL</t>
+  </si>
+  <si>
+    <t>'26','MItch','Bournemouth +135',NULL</t>
+  </si>
+  <si>
+    <t>'25','MItch','Liverpool -2.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'24','MItch','Southampton +110',NULL</t>
+  </si>
+  <si>
+    <t>'23','MItch','West Ham +255',NULL</t>
+  </si>
+  <si>
+    <t>'21','Parker','Manchester City -.5 (-140)',NULL</t>
+  </si>
+  <si>
+    <t>'20','Parker','Manchester City -140',NULL</t>
+  </si>
+  <si>
+    <t>'19','Parker','Chelsea -1.5 (-105)',NULL</t>
+  </si>
+  <si>
+    <t>'18','Parker','Manchester United -140',NULL</t>
+  </si>
+  <si>
+    <t>'17','Parker','Arsenal -135',NULL</t>
+  </si>
+  <si>
+    <t>'16','Parker','Arsenal -.5 (-135)',NULL</t>
+  </si>
+  <si>
+    <t>'15','Parker','Manchester United -.5 (-140)',NULL</t>
+  </si>
+  <si>
+    <t>'14','Parker','LIV/CAR o3.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'13','Parker','FUL/BOU o3 (-120)',NULL</t>
+  </si>
+  <si>
+    <t>'12','Parker','Watford -.5 (-140)',NULL</t>
+  </si>
+  <si>
+    <t>'11','Parker','Watford -140',NULL</t>
+  </si>
+  <si>
+    <t>'10','Parker','Draw LEI/WHU +235',NULL</t>
+  </si>
+  <si>
+    <t>'8','Adam','Manchester City -140',NULL</t>
+  </si>
+  <si>
+    <t>'7','Adam','Arsenal -135',NULL</t>
+  </si>
+  <si>
+    <t>'6','Adam','Manchester United -140',NULL</t>
+  </si>
+  <si>
+    <t>'5','Adam','Liverpool -2.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'4','Adam','Bournemouth PK (-135)',NULL</t>
+  </si>
+  <si>
+    <t>'3','Adam','Newcastle United +280',NULL</t>
+  </si>
+  <si>
+    <t>'2','Adam','Watford -140',NULL</t>
+  </si>
+  <si>
+    <t>2018-11-09</t>
+  </si>
+  <si>
+    <t>-205</t>
+  </si>
+  <si>
+    <t>+640</t>
+  </si>
+  <si>
+    <t>+190</t>
+  </si>
+  <si>
+    <t>+195</t>
+  </si>
+  <si>
+    <t>-270</t>
+  </si>
+  <si>
+    <t>+695</t>
+  </si>
+  <si>
+    <t>-245</t>
+  </si>
+  <si>
+    <t>+670</t>
+  </si>
+  <si>
+    <t>-1005</t>
+  </si>
+  <si>
+    <t>+2350</t>
+  </si>
+  <si>
+    <t>-155</t>
+  </si>
+  <si>
+    <t>+430</t>
+  </si>
+  <si>
+    <t>o4</t>
+  </si>
+  <si>
+    <t>u4</t>
   </si>
   <si>
     <t>+325</t>
   </si>
   <si>
-    <t>-1315</t>
-  </si>
-  <si>
-    <t>+3020</t>
-  </si>
-  <si>
-    <t>+420</t>
-  </si>
-  <si>
-    <t>+580</t>
-  </si>
-  <si>
-    <t>-225</t>
-  </si>
-  <si>
-    <t>-2.5</t>
-  </si>
-  <si>
-    <t>+2.5</t>
-  </si>
-  <si>
-    <t>2018-08-19</t>
-  </si>
-  <si>
-    <t>2018-08-20</t>
-  </si>
-  <si>
-    <t>+495</t>
-  </si>
-  <si>
-    <t>+1030</t>
-  </si>
-  <si>
-    <t>WHU/BOU</t>
-  </si>
-  <si>
-    <t>EVE/SOU</t>
-  </si>
-  <si>
-    <t>TOT/FUL</t>
-  </si>
-  <si>
-    <t>LEI/WOL</t>
-  </si>
-  <si>
-    <t>CHE/ARS</t>
-  </si>
-  <si>
-    <t>BUR/WAT</t>
-  </si>
-  <si>
-    <t>MCI/HUD</t>
-  </si>
-  <si>
-    <t>BHA/MUN</t>
-  </si>
-  <si>
-    <t>CRY/LIV</t>
+    <t>+395</t>
+  </si>
+  <si>
+    <t>+965</t>
+  </si>
+  <si>
+    <t>+300</t>
+  </si>
+  <si>
+    <t>LEI/BUR</t>
+  </si>
+  <si>
+    <t>NEW/BOU</t>
+  </si>
+  <si>
+    <t>CRY/TOT</t>
+  </si>
+  <si>
+    <t>HUD/WHU</t>
+  </si>
+  <si>
+    <t>SOU/WAT</t>
+  </si>
+  <si>
+    <t>CAR/BHA</t>
+  </si>
+  <si>
+    <t>MCI/MUN</t>
+  </si>
+  <si>
+    <t>CHE/EVE</t>
+  </si>
+  <si>
+    <t>LIV/FUL</t>
+  </si>
+  <si>
+    <t>ARS/WOL</t>
   </si>
 </sst>
 </file>
@@ -2836,10 +3167,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q2:Q11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2916,53 +3247,53 @@
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>207</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>93</v>
+        <v>330</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>208</v>
+        <v>334</v>
       </c>
       <c r="Q2" t="str">
         <f t="shared" ref="Q2:Q11" si="0">CONCATENATE("insert into games values (id,'",A2,"','",B2,"','",C2,"','",D2,"','",C2," ",E2,"','",D2," ",F2,"','",C2," ",G2,"','",H2,"','",D2," ",I2,"','",J2,"','",P2," ",K2,"','",L2,"','",P2," ",M2,"','",N2,"','Draw ",P2," ",O2,"',NULL,NULL,NULL,NULL,NULL,NULL,NULL);")</f>
-        <v>insert into games values (id,'EPL','2018-08-18','Cardiff City','Newcastle United','Cardiff City +220','Newcastle United +145','Cardiff City PK','+110','Newcastle United PK','-140','CAR/NEW o2','-115','CAR/NEW u2','-115','Draw CAR/NEW +205',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-11-09','Leicester City','Burnley','Leicester City -205','Burnley +640','Leicester City -1','-120','Burnley +1','-110','LEI/BUR o2.5','-120','LEI/BUR u2.5','-110','Draw LEI/BUR +325',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -2970,28 +3301,28 @@
         <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
         <v>120</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>165</v>
+        <v>318</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>124</v>
@@ -3000,23 +3331,23 @@
         <v>98</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="Q3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-08-18','West Ham','Bournemouth','West Ham +105','Bournemouth +260','West Ham -.5','-105','Bournemouth +.5','-125','WHU/BOU o2.5','-125','WHU/BOU u2.5','-105','Draw WHU/BOU +250',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-11-03','Newcastle United','Bournemouth','Newcastle United +190','Bournemouth +150','Newcastle United PK','-105','Bournemouth PK','-125','NEW/BOU o2.5','-110','NEW/BOU u2.5','-120','Draw NEW/BOU +230',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -3024,53 +3355,53 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="G4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>98</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-08-18','Everton','Southampton','Everton -120','Southampton +360','Everton -.5','-120','Southampton +.5','-110','EVE/SOU o2.5','+110','EVE/SOU u2.5','-140','Draw EVE/SOU +245',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-11-03','Crystal Palace','Tottenham','Crystal Palace +335','Tottenham -120','Crystal Palace +.5','-110','Tottenham -.5','-120','CRY/TOT o2.5','-130','CRY/TOT u2.5','EVEN','Draw CRY/TOT +260',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -3078,53 +3409,53 @@
         <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-08-18','Tottenham','Fulham','Tottenham -375','Fulham +1025','Tottenham -1.5','-130','Fulham +1.5','EVEN','TOT/FUL o3','-125','TOT/FUL u3','-105','Draw TOT/FUL +495',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-11-03','Huddersfield Town','West Ham','Huddersfield Town +235','West Ham +130','Huddersfield Town +.5','-150','West Ham -.5','+120','HUD/WHU o2','-140','HUD/WHU u2','+110','Draw HUD/WHU +220',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -3132,31 +3463,31 @@
         <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>98</v>
@@ -3168,17 +3499,17 @@
         <v>97</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-08-18','Leicester City','Wolverhampton','Leicester City +105','Wolverhampton +280','Leicester City -.5','-105','Wolverhampton +.5','-125','LEI/WOL o2.5','-105','LEI/WOL u2.5','-125','Draw LEI/WOL +245',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-11-03','Southampton','Watford','Southampton +150','Watford +195','Southampton PK','-130','Watford PK','EVEN','SOU/WAT o2.5','-105','SOU/WAT u2.5','-105','Draw SOU/WAT +225',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -3186,53 +3517,53 @@
         <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>283</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="M7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="O7" s="3" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-08-18','Chelsea','Arsenal','Chelsea -125','Arsenal +325','Chelsea -.5','-120','Arsenal +.5','-110','CHE/ARS o3','-115','CHE/ARS u3','-115','Draw CHE/ARS +290',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-11-03','Cardiff City','Brighton &amp; Hove','Cardiff City +155','Brighton &amp; Hove +205','Cardiff City PK','-130','Brighton &amp; Hove PK','EVEN','CAR/BHA o2','-120','CAR/BHA u2','-110','Draw CAR/BHA +205',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3240,53 +3571,53 @@
         <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>93</v>
+        <v>327</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-08-19','Burnley','Watford','Burnley +145','Watford +230','Burnley PK','-145','Watford PK','+115','BUR/WAT o2','-110','BUR/WAT u2','-120','Draw BUR/WAT +205',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-11-04','Manchester City','Manchester United','Manchester City -270','Manchester United +695','Manchester City -1.5','-115','Manchester United +1.5','-115','MCI/MUN o3','-135','MCI/MUN u3','+105','Draw MCI/MUN +430',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -3294,53 +3625,53 @@
         <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>209</v>
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>214</v>
+        <v>322</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>215</v>
+        <v>323</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>86</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>86</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>224</v>
+        <v>331</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>231</v>
+        <v>341</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-08-19','Manchester City','Huddersfield','Manchester City -1315','Huddersfield +3020','Manchester City -2.5','-130','Huddersfield +2.5','EVEN','MCI/HUD o3.5','-115','MCI/HUD u3.5','-115','Draw MCI/HUD +1030',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-11-04','Chelsea','Everton','Chelsea -245','Everton +670','Chelsea -1.5','+105','Everton +1.5','-135','CHE/EVE o3','-115','CHE/EVE u3','-115','Draw CHE/EVE +395',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3348,53 +3679,53 @@
         <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>95</v>
+        <v>325</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>199</v>
+        <v>332</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>232</v>
+        <v>342</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-08-19','Brighton &amp; Hove Albion','Manchester United','Brighton &amp; Hove Albion +420','Manchester United -130','Brighton &amp; Hove Albion +.5','EVEN','Manchester United -.5','-130','BHA/MUN o2.5','+115','BHA/MUN u2.5','-145','Draw BHA/MUN +245',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-11-04','Liverpool','Fulham','Liverpool -1005','Fulham +2350','Liverpool -2.5','-125','Fulham +2.5','-105','LIV/FUL o4','-125','LIV/FUL u4','-105','Draw LIV/FUL +965',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -3402,100 +3733,593 @@
         <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>218</v>
+        <v>327</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="J11" s="3" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>25</v>
+        <v>333</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>233</v>
+        <v>343</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-08-20','Crystal Palace','Liverpool','Crystal Palace +580','Liverpool -225','Crystal Palace +1','+110','Liverpool -1','-140','CRY/LIV o3','-115','CRY/LIV u3','-115','Draw CRY/LIV +380',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+        <v>insert into games values (id,'EPL','2018-11-04','Arsenal','Wolverhampton','Arsenal -155','Wolverhampton +430','Arsenal -1','EVEN','Wolverhampton +1','-130','ARS/WOL o3','+105','ARS/WOL u3','-135','Draw ARS/WOL +300',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:A106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/friendOdds.xlsx
+++ b/friendOdds.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3 (2)" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="441">
   <si>
     <t>sport</t>
   </si>
@@ -636,12 +637,6 @@
     <t>Wolverhampton</t>
   </si>
   <si>
-    <t>-2.5</t>
-  </si>
-  <si>
-    <t>+2.5</t>
-  </si>
-  <si>
     <t>'1','Adam','Crystal Palace -105',NULL</t>
   </si>
   <si>
@@ -693,9 +688,6 @@
     <t>'35','Parker','Draw WHU/WOL +235',NULL</t>
   </si>
   <si>
-    <t>+225</t>
-  </si>
-  <si>
     <t>'1','Adam','FUL/WAT o2.5 (-130)',NULL</t>
   </si>
   <si>
@@ -876,190 +868,490 @@
     <t>'1','Adam','Liverpool -1.5 (-115)',NULL</t>
   </si>
   <si>
-    <t>2018-11-03</t>
-  </si>
-  <si>
-    <t>Brighton &amp; Hove</t>
-  </si>
-  <si>
-    <t>2018-11-04</t>
-  </si>
-  <si>
-    <t>+130</t>
+    <t>'31','MItch','BUR/CHE o2.5 (-125)',NULL</t>
+  </si>
+  <si>
+    <t>'30','MItch','TOT/MCI o3 (-110)',NULL</t>
+  </si>
+  <si>
+    <t>'29','MItch','Crystal Palace +335',NULL</t>
+  </si>
+  <si>
+    <t>'28','MItch','Manchester United -140',NULL</t>
+  </si>
+  <si>
+    <t>'27','MItch','Wolverhampton +145',NULL</t>
+  </si>
+  <si>
+    <t>'26','MItch','Bournemouth +135',NULL</t>
+  </si>
+  <si>
+    <t>'25','MItch','Liverpool -2.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'24','MItch','Southampton +110',NULL</t>
+  </si>
+  <si>
+    <t>'23','MItch','West Ham +255',NULL</t>
+  </si>
+  <si>
+    <t>'21','Parker','Manchester City -.5 (-140)',NULL</t>
+  </si>
+  <si>
+    <t>'20','Parker','Manchester City -140',NULL</t>
+  </si>
+  <si>
+    <t>'19','Parker','Chelsea -1.5 (-105)',NULL</t>
+  </si>
+  <si>
+    <t>'18','Parker','Manchester United -140',NULL</t>
+  </si>
+  <si>
+    <t>'17','Parker','Arsenal -135',NULL</t>
+  </si>
+  <si>
+    <t>'16','Parker','Arsenal -.5 (-135)',NULL</t>
+  </si>
+  <si>
+    <t>'15','Parker','Manchester United -.5 (-140)',NULL</t>
+  </si>
+  <si>
+    <t>'14','Parker','LIV/CAR o3.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'13','Parker','FUL/BOU o3 (-120)',NULL</t>
+  </si>
+  <si>
+    <t>'12','Parker','Watford -.5 (-140)',NULL</t>
+  </si>
+  <si>
+    <t>'11','Parker','Watford -140',NULL</t>
+  </si>
+  <si>
+    <t>'10','Parker','Draw LEI/WHU +235',NULL</t>
+  </si>
+  <si>
+    <t>'8','Adam','Manchester City -140',NULL</t>
+  </si>
+  <si>
+    <t>'7','Adam','Arsenal -135',NULL</t>
+  </si>
+  <si>
+    <t>'6','Adam','Manchester United -140',NULL</t>
+  </si>
+  <si>
+    <t>'5','Adam','Liverpool -2.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'4','Adam','Bournemouth PK (-135)',NULL</t>
+  </si>
+  <si>
+    <t>'3','Adam','Newcastle United +280',NULL</t>
+  </si>
+  <si>
+    <t>'2','Adam','Watford -140',NULL</t>
+  </si>
+  <si>
+    <t>'1','Adam','Burnley +1 (-110)',NULL</t>
+  </si>
+  <si>
+    <t>'2','Adam','Bournemouth +150',NULL</t>
+  </si>
+  <si>
+    <t>'3','Adam','Tottenham -120',NULL</t>
+  </si>
+  <si>
+    <t>'4','Adam','West Ham +130',NULL</t>
+  </si>
+  <si>
+    <t>'5','Adam','Watford PK (EVEN)',NULL</t>
+  </si>
+  <si>
+    <t>'6','Adam','LIV/FUL u4 (-105)',NULL</t>
+  </si>
+  <si>
+    <t>'7','Adam','Arsenal -155',NULL</t>
+  </si>
+  <si>
+    <t>'9','Mitch','Leicester City -1 (-120)',NULL</t>
+  </si>
+  <si>
+    <t>'10','Mitch','Tottenham -120',NULL</t>
+  </si>
+  <si>
+    <t>'11','Mitch','West Ham +130',NULL</t>
+  </si>
+  <si>
+    <t>'12','Mitch','Watford PK (EVEN)',NULL</t>
+  </si>
+  <si>
+    <t>'13','Mitch','CAR/BHA u2 (-110)',NULL</t>
+  </si>
+  <si>
+    <t>'14','Mitch','Everton +1.5 (-135)',NULL</t>
+  </si>
+  <si>
+    <t>'15','Mitch','Liverpool -2.5 (-125)',NULL</t>
+  </si>
+  <si>
+    <t>'16','Mitch','Manchester City -1.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'17','Mitch','ARS/WOL o3 (+105)',NULL</t>
+  </si>
+  <si>
+    <t>'23','Parker','West Ham +130',NULL</t>
+  </si>
+  <si>
+    <t>'22','Parker','Tottenham -.5 (-120)',NULL</t>
+  </si>
+  <si>
+    <t>'21','Parker','Tottenham -120',NULL</t>
+  </si>
+  <si>
+    <t>'24','Parker','Draw SOU/WAT +225',NULL</t>
+  </si>
+  <si>
+    <t>'25','Parker','Cardiff City PK (-130)',NULL</t>
+  </si>
+  <si>
+    <t>'26','Parker','Manchester City -1.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'27','Parker','Liverpool -2.5 (-125)',NULL</t>
+  </si>
+  <si>
+    <t>'28','Parker','Arsenal -155',NULL</t>
+  </si>
+  <si>
+    <t>'1','Adam','Draw WOL/CAR +205',NULL</t>
+  </si>
+  <si>
+    <t>'2','Adam','Draw WAT/LEI +215',NULL</t>
+  </si>
+  <si>
+    <t>'3','Adam','Draw BUR/CRY +270',NULL</t>
+  </si>
+  <si>
+    <t>'4','Adam','West Ham PK (+105)',NULL</t>
+  </si>
+  <si>
+    <t>'5','Adam','BOU/MCI u4 (-125)',NULL</t>
+  </si>
+  <si>
+    <t>'6','Adam','Manchester United -115',NULL</t>
+  </si>
+  <si>
+    <t>'7','Adam','Draw BHA/HUD +185',NULL</t>
+  </si>
+  <si>
+    <t>'8','Adam','Everton +1.5 (-130)',NULL</t>
+  </si>
+  <si>
+    <t>'9','Adam','Draw TOT/ARS +245',NULL</t>
+  </si>
+  <si>
+    <t>'29','Mitch','Fulham +2 (-105)',NULL</t>
+  </si>
+  <si>
+    <t>'28','Mitch','Draw TOT/ARS +245',NULL</t>
+  </si>
+  <si>
+    <t>'27','Mitch','EVE/LIV o3 (-105)',NULL</t>
+  </si>
+  <si>
+    <t>'26','Mitch','Draw BHA/HUD +185',NULL</t>
+  </si>
+  <si>
+    <t>'25','Mitch','Manchester United -115',NULL</t>
+  </si>
+  <si>
+    <t>'24','Mitch','Manchester City -2.5 (-120)',NULL</t>
+  </si>
+  <si>
+    <t>'23','Mitch','WHU/NEW u2.5 (-130)',NULL</t>
+  </si>
+  <si>
+    <t>'22','Mitch','Draw BUR/CRY +270',NULL</t>
+  </si>
+  <si>
+    <t>'21','Mitch','Wolverhampton +115',NULL</t>
+  </si>
+  <si>
+    <t>'34','Parker','Manchester City -2.5 (-120)',NULL</t>
+  </si>
+  <si>
+    <t>'33','Parker','Draw BHA/HUD +185',NULL</t>
+  </si>
+  <si>
+    <t>'35','Parker','Manchester United -115',NULL</t>
+  </si>
+  <si>
+    <t>'36','Parker','Liverpool -1.5 (EVEN)',NULL</t>
+  </si>
+  <si>
+    <t>'37','Parker','Fulham +2 (-105)',NULL</t>
+  </si>
+  <si>
+    <t>'38','Parker','Arsenal +145',NULL</t>
+  </si>
+  <si>
+    <t>'16','Adam','Manchester City -115',NULL</t>
+  </si>
+  <si>
+    <t>'17','Adam','Crystal Palace +.5 (-135)',NULL</t>
+  </si>
+  <si>
+    <t>'18','Adam','Draw BUR/BHA +195',NULL</t>
+  </si>
+  <si>
+    <t>'19','Adam','Tottenham -110',NULL</t>
+  </si>
+  <si>
+    <t>'20','Adam','Manchester United -1.5 (-105)',NULL</t>
+  </si>
+  <si>
+    <t>'21','Adam','Cardiff City PK (-110)',NULL</t>
+  </si>
+  <si>
+    <t>'22','Adam','Everton -145',NULL</t>
+  </si>
+  <si>
+    <t>'24','Mitch','Draw WHU/CRY +220',NULL</t>
+  </si>
+  <si>
+    <t>'25','Mitch','Manchester City -.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'26','Mitch','Tottenham -110',NULL</t>
+  </si>
+  <si>
+    <t>'27','Mitch','BOU/LIV o3 (-110)',NULL</t>
+  </si>
+  <si>
+    <t>'28','Mitch','Fulham +1.5 (-125)',NULL</t>
+  </si>
+  <si>
+    <t>'29','Mitch','Arsenal -1.5 (-120)',NULL</t>
+  </si>
+  <si>
+    <t>'30','Mitch','Cardiff City +180',NULL</t>
+  </si>
+  <si>
+    <t>'31','Mitch','EVE/WAT o2.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'32','Mitch','NEW/WOL o2 (-130)',NULL</t>
+  </si>
+  <si>
+    <t>'1','Parker','Manchester City -115',NULL</t>
+  </si>
+  <si>
+    <t>'2','Parker','Draw BUR/BHA +195',NULL</t>
+  </si>
+  <si>
+    <t>'3','Parker','West Ham +115',NULL</t>
+  </si>
+  <si>
+    <t>'4','Parker','Arsenal -1.5 (-120)',NULL</t>
+  </si>
+  <si>
+    <t>'5','Parker','Fulham +1.5 (-125)',NULL</t>
+  </si>
+  <si>
+    <t>'6','Parker','Newcastle United PK (-110)',NULL</t>
+  </si>
+  <si>
+    <t>'7','Parker','Everton -145',NULL</t>
+  </si>
+  <si>
+    <t>'8','Parker','Cardiff City PK (-110)',NULL</t>
   </si>
   <si>
     <t>+230</t>
   </si>
   <si>
-    <t>'31','MItch','BUR/CHE o2.5 (-125)',NULL</t>
-  </si>
-  <si>
-    <t>'30','MItch','TOT/MCI o3 (-110)',NULL</t>
-  </si>
-  <si>
-    <t>'29','MItch','Crystal Palace +335',NULL</t>
-  </si>
-  <si>
-    <t>'28','MItch','Manchester United -140',NULL</t>
-  </si>
-  <si>
-    <t>'27','MItch','Wolverhampton +145',NULL</t>
-  </si>
-  <si>
-    <t>'26','MItch','Bournemouth +135',NULL</t>
-  </si>
-  <si>
-    <t>'25','MItch','Liverpool -2.5 (-115)',NULL</t>
-  </si>
-  <si>
-    <t>'24','MItch','Southampton +110',NULL</t>
-  </si>
-  <si>
-    <t>'23','MItch','West Ham +255',NULL</t>
-  </si>
-  <si>
-    <t>'21','Parker','Manchester City -.5 (-140)',NULL</t>
-  </si>
-  <si>
-    <t>'20','Parker','Manchester City -140',NULL</t>
-  </si>
-  <si>
-    <t>'19','Parker','Chelsea -1.5 (-105)',NULL</t>
-  </si>
-  <si>
-    <t>'18','Parker','Manchester United -140',NULL</t>
-  </si>
-  <si>
-    <t>'17','Parker','Arsenal -135',NULL</t>
-  </si>
-  <si>
-    <t>'16','Parker','Arsenal -.5 (-135)',NULL</t>
-  </si>
-  <si>
-    <t>'15','Parker','Manchester United -.5 (-140)',NULL</t>
-  </si>
-  <si>
-    <t>'14','Parker','LIV/CAR o3.5 (-115)',NULL</t>
-  </si>
-  <si>
-    <t>'13','Parker','FUL/BOU o3 (-120)',NULL</t>
-  </si>
-  <si>
-    <t>'12','Parker','Watford -.5 (-140)',NULL</t>
-  </si>
-  <si>
-    <t>'11','Parker','Watford -140',NULL</t>
-  </si>
-  <si>
-    <t>'10','Parker','Draw LEI/WHU +235',NULL</t>
-  </si>
-  <si>
-    <t>'8','Adam','Manchester City -140',NULL</t>
-  </si>
-  <si>
-    <t>'7','Adam','Arsenal -135',NULL</t>
-  </si>
-  <si>
-    <t>'6','Adam','Manchester United -140',NULL</t>
-  </si>
-  <si>
-    <t>'5','Adam','Liverpool -2.5 (-115)',NULL</t>
-  </si>
-  <si>
-    <t>'4','Adam','Bournemouth PK (-135)',NULL</t>
-  </si>
-  <si>
-    <t>'3','Adam','Newcastle United +280',NULL</t>
-  </si>
-  <si>
-    <t>'2','Adam','Watford -140',NULL</t>
-  </si>
-  <si>
-    <t>2018-11-09</t>
-  </si>
-  <si>
-    <t>-205</t>
-  </si>
-  <si>
-    <t>+640</t>
-  </si>
-  <si>
-    <t>+190</t>
-  </si>
-  <si>
-    <t>+195</t>
-  </si>
-  <si>
-    <t>-270</t>
-  </si>
-  <si>
-    <t>+695</t>
-  </si>
-  <si>
-    <t>-245</t>
-  </si>
-  <si>
-    <t>+670</t>
-  </si>
-  <si>
-    <t>-1005</t>
-  </si>
-  <si>
-    <t>+2350</t>
-  </si>
-  <si>
-    <t>-155</t>
-  </si>
-  <si>
-    <t>+430</t>
-  </si>
-  <si>
-    <t>o4</t>
-  </si>
-  <si>
-    <t>u4</t>
-  </si>
-  <si>
-    <t>+325</t>
-  </si>
-  <si>
-    <t>+395</t>
-  </si>
-  <si>
-    <t>+965</t>
-  </si>
-  <si>
-    <t>+300</t>
-  </si>
-  <si>
-    <t>LEI/BUR</t>
-  </si>
-  <si>
-    <t>NEW/BOU</t>
-  </si>
-  <si>
-    <t>CRY/TOT</t>
-  </si>
-  <si>
-    <t>HUD/WHU</t>
-  </si>
-  <si>
-    <t>SOU/WAT</t>
-  </si>
-  <si>
-    <t>CAR/BHA</t>
-  </si>
-  <si>
-    <t>MCI/MUN</t>
-  </si>
-  <si>
-    <t>CHE/EVE</t>
-  </si>
-  <si>
-    <t>LIV/FUL</t>
-  </si>
-  <si>
-    <t>ARS/WOL</t>
+    <t>'2','Adam','CRY/LEI o2 (-130)',NULL</t>
+  </si>
+  <si>
+    <t>'3','Adam','TOT/BUR u3.5 (-135)',NULL</t>
+  </si>
+  <si>
+    <t>'4','Adam','Draw HUD/NEW +185',NULL</t>
+  </si>
+  <si>
+    <t>'5','Adam','Watford -1 (EVEN)',NULL</t>
+  </si>
+  <si>
+    <t>'6','Adam','Chelsea -1 (-145)',NULL</t>
+  </si>
+  <si>
+    <t>'7','Adam','WOL/BOU o2.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'8','Adam','West Ham PK (-125)',NULL</t>
+  </si>
+  <si>
+    <t>'9','Adam','Liverpool -1 (-120)',NULL</t>
+  </si>
+  <si>
+    <t>'10','Adam','Arsenal -115',NULL</t>
+  </si>
+  <si>
+    <t>'19','Parker','Cardiff City +1 (-130)',NULL</t>
+  </si>
+  <si>
+    <t>'20','Parker','Newcastle United PK (-105)',NULL</t>
+  </si>
+  <si>
+    <t>'21','Parker','Draw CRY/LEI +200',NULL</t>
+  </si>
+  <si>
+    <t>'22','Parker','Bournemouth +.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'23','Parker','West Ham PK (-125)',NULL</t>
+  </si>
+  <si>
+    <t>'24','Parker','Chelsea -1 (-145)',NULL</t>
+  </si>
+  <si>
+    <t>'25','Parker','Liverpool -1 (-120)',NULL</t>
+  </si>
+  <si>
+    <t>'26','Parker','Arsenal -.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'28','Mitch','BHA/CHE u2.5 (-110)',NULL</t>
+  </si>
+  <si>
+    <t>'29','Mitch','Southampton +.5 (-115)',NULL</t>
+  </si>
+  <si>
+    <t>'30','Mitch','Fulham PK (-105)',NULL</t>
+  </si>
+  <si>
+    <t>'31','Mitch','Watford -175',NULL</t>
+  </si>
+  <si>
+    <t>'32','Mitch','Wolverhampton -110',NULL</t>
+  </si>
+  <si>
+    <t>'33','Mitch','Tottenham -2 (-120)',NULL</t>
+  </si>
+  <si>
+    <t>'34','Mitch','Manchester City -2 (-105)',NULL</t>
+  </si>
+  <si>
+    <t>'35','Mitch','Draw HUD/NEW +185',NULL</t>
+  </si>
+  <si>
+    <t>'36','Mitch','Crystal Palace +150',NULL</t>
+  </si>
+  <si>
+    <t>2018-12-29</t>
+  </si>
+  <si>
+    <t>-265</t>
+  </si>
+  <si>
+    <t>+620</t>
+  </si>
+  <si>
+    <t>-280</t>
+  </si>
+  <si>
+    <t>+745</t>
+  </si>
+  <si>
+    <t>-215</t>
+  </si>
+  <si>
+    <t>+580</t>
+  </si>
+  <si>
+    <t>+285</t>
+  </si>
+  <si>
+    <t>-305</t>
+  </si>
+  <si>
+    <t>+680</t>
+  </si>
+  <si>
+    <t>+885</t>
+  </si>
+  <si>
+    <t>-400</t>
+  </si>
+  <si>
+    <t>+385</t>
+  </si>
+  <si>
+    <t>+129</t>
+  </si>
+  <si>
+    <t>2018-12-30</t>
+  </si>
+  <si>
+    <t>+250</t>
+  </si>
+  <si>
+    <t>+265</t>
+  </si>
+  <si>
+    <t>WAT/NEW</t>
+  </si>
+  <si>
+    <t>BHA/EVE</t>
+  </si>
+  <si>
+    <t>LIV/ARS</t>
+  </si>
+  <si>
+    <t>TOT/WOL</t>
+  </si>
+  <si>
+    <t>LEI/CAR</t>
+  </si>
+  <si>
+    <t>FUL/HUD</t>
+  </si>
+  <si>
+    <t>BUR/WHU</t>
+  </si>
+  <si>
+    <t>MUN/BOU</t>
+  </si>
+  <si>
+    <t>SOU/MCI</t>
+  </si>
+  <si>
+    <t>CRY/CHE</t>
+  </si>
+  <si>
+    <t>'4','Parker','CARDIFF CITY -0.5 (+110)',NULL</t>
+  </si>
+  <si>
+    <t>'3','Parker','CRYSTAL PALACE +115',NULL</t>
+  </si>
+  <si>
+    <t>'5','Adam','TOTTENHAM +EVEN',NULL</t>
+  </si>
+  <si>
+    <t>'6','Adam','BURNLEY FC +125',NULL</t>
+  </si>
+  <si>
+    <t>'7','Adam','LEICESTER CITY -115',NULL</t>
+  </si>
+  <si>
+    <t>'8','Mitch','CRYSTAL PALACE +115',NULL</t>
+  </si>
+  <si>
+    <t>'9','Mitch','BUR/FUL o2.5 (-105)',NULL</t>
+  </si>
+  <si>
+    <t>'10','Mitch','NEWCASTLE UNITED 2 (-125)',NULL</t>
   </si>
 </sst>
 </file>
@@ -3169,8 +3461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3247,53 +3539,53 @@
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>316</v>
+        <v>143</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>317</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>330</v>
+        <v>421</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="Q2" t="str">
-        <f t="shared" ref="Q2:Q11" si="0">CONCATENATE("insert into games values (id,'",A2,"','",B2,"','",C2,"','",D2,"','",C2," ",E2,"','",D2," ",F2,"','",C2," ",G2,"','",H2,"','",D2," ",I2,"','",J2,"','",P2," ",K2,"','",L2,"','",P2," ",M2,"','",N2,"','Draw ",P2," ",O2,"',NULL,NULL,NULL,NULL,NULL,NULL,NULL);")</f>
-        <v>insert into games values (id,'EPL','2018-11-09','Leicester City','Burnley','Leicester City -205','Burnley +640','Leicester City -1','-120','Burnley +1','-110','LEI/BUR o2.5','-120','LEI/BUR u2.5','-110','Draw LEI/BUR +325',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <f t="shared" ref="Q2:Q9" si="0">CONCATENATE("insert into games values (id,'",A2,"','",B2,"','",C2,"','",D2,"','",C2," ",E2,"','",D2," ",F2,"','",C2," ",G2,"','",H2,"','",D2," ",I2,"','",J2,"','",P2," ",K2,"','",L2,"','",P2," ",M2,"','",N2,"','Draw ",P2," ",O2,"',NULL,NULL,NULL,NULL,NULL,NULL,NULL);")</f>
+        <v>insert into games values (id,'EPL','2018-12-29','Watford','Newcastle United','Watford -145','Newcastle United +380','Watford -.5','-145','Newcastle United +.5','+115','WAT/NEW o2.5','-110','WAT/NEW u2.5','-120','Draw WAT/NEW +250',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -3301,53 +3593,53 @@
         <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>282</v>
+        <v>406</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>318</v>
+        <v>101</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>98</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>286</v>
+        <v>101</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>335</v>
+        <v>424</v>
       </c>
       <c r="Q3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-11-03','Newcastle United','Bournemouth','Newcastle United +190','Bournemouth +150','Newcastle United PK','-105','Bournemouth PK','-125','NEW/BOU o2.5','-110','NEW/BOU u2.5','-120','Draw NEW/BOU +230',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-12-29','Brighton &amp; Hove Albion','Everton','Brighton &amp; Hove Albion +220','Everton +120','Brighton &amp; Hove Albion +.5','-140','Everton -.5','+110','BHA/EVE o2.5','-115','BHA/EVE u2.5','-115','Draw BHA/EVE +220',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -3355,53 +3647,53 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>282</v>
+        <v>406</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>130</v>
+        <v>408</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>95</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>96</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>336</v>
+        <v>425</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-11-03','Crystal Palace','Tottenham','Crystal Palace +335','Tottenham -120','Crystal Palace +.5','-110','Tottenham -.5','-120','CRY/TOT o2.5','-130','CRY/TOT u2.5','EVEN','Draw CRY/TOT +260',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-12-29','Liverpool','Arsenal','Liverpool -265','Arsenal +620','Liverpool -1','-145','Arsenal +1','+115','LIV/ARS o3','-130','LIV/ARS u3','EVEN','Draw LIV/ARS +355',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -3409,53 +3701,53 @@
         <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>282</v>
+        <v>406</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>112</v>
+        <v>409</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>285</v>
+        <v>410</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-11-03','Huddersfield Town','West Ham','Huddersfield Town +235','West Ham +130','Huddersfield Town +.5','-150','West Ham -.5','+120','HUD/WHU o2','-140','HUD/WHU u2','+110','Draw HUD/WHU +220',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-12-29','Tottenham','Wolverhampton','Tottenham -280','Wolverhampton +745','Tottenham -1.5','+115','Wolverhampton +1.5','-145','TOT/WOL o2.5','-135','TOT/WOL u2.5','+105','Draw TOT/WOL +335',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -3463,53 +3755,53 @@
         <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>282</v>
+        <v>406</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>92</v>
+        <v>411</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>319</v>
+        <v>412</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>98</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>338</v>
+        <v>427</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-11-03','Southampton','Watford','Southampton +150','Watford +195','Southampton PK','-130','Watford PK','EVEN','SOU/WAT o2.5','-105','SOU/WAT u2.5','-105','Draw SOU/WAT +225',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-12-29','Leicester City','Cardiff City','Leicester City -215','Cardiff City +580','Leicester City -1','-115','Cardiff City +1','-115','LEI/CAR o2.5','-110','LEI/CAR u2.5','-120','Draw LEI/CAR +290',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -3517,53 +3809,53 @@
         <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>282</v>
+        <v>406</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>103</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>93</v>
+        <v>413</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>116</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-11-03','Cardiff City','Brighton &amp; Hove','Cardiff City +155','Brighton &amp; Hove +205','Cardiff City PK','-130','Brighton &amp; Hove PK','EVEN','CAR/BHA o2','-120','CAR/BHA u2','-110','Draw CAR/BHA +205',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-12-29','Fulham','Huddersfield Town','Fulham EVEN','Huddersfield Town +285','Fulham -.5','-110','Huddersfield Town +.5','-120','FUL/HUD o2','-135','FUL/HUD u2','+105','Draw FUL/HUD +210',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3571,53 +3863,53 @@
         <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>284</v>
+        <v>420</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>320</v>
+        <v>151</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>321</v>
+        <v>165</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="M8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="O8" s="3" t="s">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>340</v>
+        <v>429</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-11-04','Manchester City','Manchester United','Manchester City -270','Manchester United +695','Manchester City -1.5','-115','Manchester United +1.5','-115','MCI/MUN o3','-135','MCI/MUN u3','+105','Draw MCI/MUN +430',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-12-30','Burnley','West Ham','Burnley +240','West Ham +105','Burnley +.5','-125','West Ham -.5','-105','BUR/WHU o2.5','-115','BUR/WHU u2.5','-115','Draw BUR/WHU +230',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -3625,19 +3917,19 @@
         <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>284</v>
+        <v>420</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>322</v>
+        <v>414</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>323</v>
+        <v>415</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>162</v>
@@ -3655,23 +3947,23 @@
         <v>37</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>331</v>
+        <v>168</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>341</v>
+        <v>430</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-11-04','Chelsea','Everton','Chelsea -245','Everton +670','Chelsea -1.5','+105','Everton +1.5','-135','CHE/EVE o3','-115','CHE/EVE u3','-115','Draw CHE/EVE +395',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <v>insert into games values (id,'EPL','2018-12-30','Manchester United','Bournemouth','Manchester United -305','Bournemouth +680','Manchester United -1.5','+105','Bournemouth +1.5','-135','MUN/BOU o3','-120','MUN/BOU u3','-130','Draw MUN/BOU +390',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3679,53 +3971,53 @@
         <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>284</v>
+        <v>420</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>324</v>
+        <v>416</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>328</v>
+        <v>37</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>124</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>329</v>
+        <v>39</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>332</v>
+        <v>27</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>342</v>
+        <v>431</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-11-04','Liverpool','Fulham','Liverpool -1005','Fulham +2350','Liverpool -2.5','-125','Fulham +2.5','-105','LIV/FUL o4','-125','LIV/FUL u4','-105','Draw LIV/FUL +965',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <f t="shared" ref="Q10:Q11" si="1">CONCATENATE("insert into games values (id,'",A10,"','",B10,"','",C10,"','",D10,"','",C10," ",E10,"','",D10," ",F10,"','",C10," ",G10,"','",H10,"','",D10," ",I10,"','",J10,"','",P10," ",K10,"','",L10,"','",P10," ",M10,"','",N10,"','Draw ",P10," ",O10,"',NULL,NULL,NULL,NULL,NULL,NULL,NULL);")</f>
+        <v>insert into games values (id,'EPL','2018-12-30','Southampton','Manchester City','Southampton +885','Manchester City -400','Southampton +1.5','-105','Manchester City -1.5','-125','SOU/MCI o3','-125','SOU/MCI u3','-105','Draw SOU/MCI +450',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -3733,53 +4025,53 @@
         <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>284</v>
+        <v>420</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>326</v>
+        <v>418</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>327</v>
+        <v>107</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>163</v>
+        <v>419</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>343</v>
+        <v>432</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into games values (id,'EPL','2018-11-04','Arsenal','Wolverhampton','Arsenal -155','Wolverhampton +430','Arsenal -1','EVEN','Wolverhampton +1','-130','ARS/WOL o3','+105','ARS/WOL u3','-135','Draw ARS/WOL +300',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
+        <f t="shared" si="1"/>
+        <v>insert into games values (id,'EPL','2018-12-30','Crystal Palace','Chelsea','Crystal Palace +385','Chelsea -150','Crystal Palace +.5','+120','Chelsea o2.5','-115','CRY/CHE u2.5','-115','CRY/CHE +.5','+129','Draw CRY/CHE +265',NULL,NULL,NULL,NULL,NULL,NULL,NULL);</v>
       </c>
     </row>
   </sheetData>
@@ -3789,537 +4081,1082 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A105"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:A106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>226</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>227</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>228</v>
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A187"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180:A188"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>314</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
